--- a/Result/check1/2025-04-07.xlsx
+++ b/Result/check1/2025-04-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV5"/>
+  <dimension ref="A1:AV4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-11.11</t>
+          <t>-12.21</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>674</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>12.59</t>
+          <t>12.47</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>30.12</t>
+          <t>30.82</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3842</t>
+          <t>3805</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -980,12 +980,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>52</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>25282</t>
+          <t>10758</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-9.17</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>42.23</t>
+          <t>42.45</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-8.5</t>
+          <t>-9.64</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>7407</t>
+          <t>551</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-10.69</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>10.65</t>
+          <t>10.54</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,17 +1357,17 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>43.07</t>
+          <t>43.3</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>28015</t>
+          <t>27722</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>建設業務99.78%、其他0.22% (2023年)</t>
+          <t>房地產99.85%、其他租賃業務0.15% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -1398,248 +1398,6 @@
       <c r="AV4" t="inlineStr">
         <is>
           <t>** 建材營造 - 建設業</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1435</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.064</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>651</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>657</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>-95.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>-6.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>75.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>-833165.0</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>中福</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>71.35%</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>-836.90%</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>27.67</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>4403</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>倉儲100.00% (2023年)</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>中福-其他-上市</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>其他右下</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU5" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV5" t="inlineStr">
-        <is>
-          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>

--- a/Result/check1/2025-04-07.xlsx
+++ b/Result/check1/2025-04-07.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-12.21</t>
+          <t>-15.45</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>28</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>3566</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,19 +753,19 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S2" t="inlineStr">
         <is>
           <t>0.02</t>
@@ -788,7 +788,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>12.47</t>
+          <t>12.12</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>30.82</t>
+          <t>30.93</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3805</t>
+          <t>3698</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-3.3</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>10758</t>
+          <t>3840</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>35.16</t>
+          <t>34.19</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>42.45</t>
+          <t>44.38</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>4255</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-9.64</t>
+          <t>-4.4</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>10.54</t>
+          <t>11.07</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>43.3</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>27722</t>
+          <t>29114</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">

--- a/Result/check1/2025-04-07.xlsx
+++ b/Result/check1/2025-04-07.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-15.45</t>
+          <t>-11.48</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>43</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>3566</t>
+          <t>3495</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>-1.04</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>12.12</t>
+          <t>12.55</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>30.93</t>
+          <t>31.2</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3698</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-4.78</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>3840</t>
+          <t>3573</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-4.30</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>34.19</t>
+          <t>33.71</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,17 +1115,17 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>44.38</t>
+          <t>44.48</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>4138</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>瓷磚98.03%、木地板(坪/平方公尺/片)1.97% (2023年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-4.4</t>
+          <t>-2.98</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>1083</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>11.07</t>
+          <t>11.23</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>43.94</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>29114</t>
+          <t>29517</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">

--- a/Result/check1/2025-04-07.xlsx
+++ b/Result/check1/2025-04-07.xlsx
@@ -683,17 +683,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3709</t>
+          <t>5489</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-11.03</t>
+          <t>-3.84</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>180.0</t>
+          <t>237.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,107 +703,107 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>41.22</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>34.0</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>-11.48</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>3495</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>-1.04</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>86.0</t>
+          <t>142.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -813,32 +813,32 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>368808.0</t>
+          <t>4031.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>鑫聯大投控</t>
+          <t>彩富</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -848,57 +848,57 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>87.14</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>12.55</t>
+          <t>19.1</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>4.94%</t>
+          <t>38.43%</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>1.78%</t>
+          <t>11.45%</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>31.2</t>
+          <t>28.73</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3830</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>電腦,零組件及週邊設備99.30%、其他0.70% (2024年)</t>
+          <t>安全監控系統91.23%、其他8.55%、機器視覺系統0.22% (2024年)</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>鑫聯大投控-電腦及週邊設備業-上櫃</t>
+          <t>彩富-其他電子業-上櫃</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>其他電子業右上</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>23.26</t>
+          <t>23.44</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 中央處理器、晶片組、面板、顯示器模組、記憶體、主機板、機殼、電源供應器、網路卡、電池、散熱片、風扇馬達、散熱模組、輸出入模組/介面卡、顯示卡、硬碟機、光碟機、磁碟儲存系統、BIOS(嵌入式軟體)、筆記型電腦、桌上型電腦、工業電腦、精簡型電腦、伺服器、其他電腦及週邊設備、隨身碟、記憶卡讀卡機、多功能視訊卡、光學鏡片、鏡頭、光碟片、連接線、機構樞紐、金屬、塑膠模具、印表機、傳真機、掃瞄器、多功能事務機、投影機、安全監控系統、其他電腦及週邊設備之零組件</t>
+          <t>** 電腦及週邊設備 - 安全監控系統** 平面顯示器 - 生產製程及檢測設備</t>
         </is>
       </c>
     </row>
@@ -925,17 +925,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>3709</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>-11.03</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13730.019</t>
+          <t>180.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,202 +945,202 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>15.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>54.31</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-9.32</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>10.95</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>-4.78</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>3573</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>-4.30</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>29.39</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>295.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>69.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>248539095.0</t>
+          <t>368808.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>冠軍</t>
+          <t>鑫聯大投控</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>玻璃陶瓷</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>87.14</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>33.71</t>
+          <t>12.8</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>4.94%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>1.78%</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>44.48</t>
+          <t>32.56</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>4080</t>
+          <t>3905</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
+          <t>電腦,零組件及週邊設備99.30%、其他0.70% (2024年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
+          <t>鑫聯大投控-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>23.26</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 電腦及週邊設備 - 中央處理器、晶片組、面板、顯示器模組、記憶體、主機板、機殼、電源供應器、網路卡、電池、散熱片、風扇馬達、散熱模組、輸出入模組/介面卡、顯示卡、硬碟機、光碟機、磁碟儲存系統、BIOS(嵌入式軟體)、筆記型電腦、桌上型電腦、工業電腦、精簡型電腦、伺服器、其他電腦及週邊設備、隨身碟、記憶卡讀卡機、多功能視訊卡、光學鏡片、鏡頭、光碟片、連接線、機構樞紐、金屬、塑膠模具、印表機、傳真機、掃瞄器、多功能事務機、投影機、安全監控系統、其他電腦及週邊設備之零組件</t>
         </is>
       </c>
     </row>
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1442</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5155.765</t>
+          <t>13730.019</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>13.85</t>
+          <t>15.02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>41.39</t>
+          <t>54.31</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,72 +1217,72 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-2.98</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>28</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1083</t>
+          <t>5797</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>29.39</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>295.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>69.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1292,37 +1292,37 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>69</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>408339081.0</t>
+          <t>248539095.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>名軒</t>
+          <t>冠軍</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>玻璃陶瓷</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1332,57 +1332,57 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>11.23</t>
+          <t>35.65</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>46.69%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>38.62%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>43.94</t>
+          <t>46.69</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>29517</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>房地產99.85%、其他租賃業務0.15% (2024年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>名軒-建材營造-上市</t>
+          <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>23.33</t>
+          <t>14.4</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建設業</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>

--- a/Result/check1/2025-04-07.xlsx
+++ b/Result/check1/2025-04-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV4"/>
+  <dimension ref="A1:AV5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -713,7 +713,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>41.22</t>
+          <t>11.25</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>12.38</t>
+          <t>19.68</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>2107</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>19.1</t>
+          <t>20.84</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>28.73</t>
+          <t>28.21</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>4689</t>
+          <t>5115</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-9.32</t>
+          <t>-10.03</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2475</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-5.66</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>12.8</t>
+          <t>12.72</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>32.56</t>
+          <t>32.1</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>3905</t>
+          <t>3880</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>5797</t>
+          <t>5193</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>35.65</t>
+          <t>36.13</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>46.69</t>
+          <t>46.82</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>4314</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1398,6 +1398,248 @@
       <c r="AV4" t="inlineStr">
         <is>
           <t>** 建材營造 - 建材原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1442</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5155.765</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>41.39</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>-5.06</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>869</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>-1.26</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>-0.37</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>408339081.0</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>名軒</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>建材營造</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>46.69%</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>38.62%</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>28931</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>房地產99.85%、其他租賃業務0.15% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>名軒-建材營造-上市</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>建材營造右上</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>** 建材營造 - 建設業</t>
         </is>
       </c>
     </row>

--- a/Result/check1/2025-04-07.xlsx
+++ b/Result/check1/2025-04-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV5"/>
+  <dimension ref="A1:AV4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>19.68</t>
+          <t>10.81</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2107</t>
+          <t>1838</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>-13.27</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>20.84</t>
+          <t>18.77</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>28.21</t>
+          <t>28.32</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>5115</t>
+          <t>4606</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-10.03</t>
+          <t>-10.57</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2475</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-5.66</t>
+          <t>-1.45</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>12.72</t>
+          <t>12.65</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>32.1</t>
+          <t>31.94</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>3880</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>5193</t>
+          <t>3793</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>36.13</t>
+          <t>36.29</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>46.82</t>
+          <t>47.12</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4392</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1398,248 +1398,6 @@
       <c r="AV4" t="inlineStr">
         <is>
           <t>** 建材營造 - 建材原料</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1442</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5155.765</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>13.85</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>41.39</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>83.0</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>-5.06</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>869</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>-1.26</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>-0.37</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>23.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>29.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>408339081.0</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>名軒</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>建材營造</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>46.69%</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>38.62%</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>44.28</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>28931</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>房地產99.85%、其他租賃業務0.15% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>名軒-建材營造-上市</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>建材營造右上</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>23.33</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU5" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV5" t="inlineStr">
-        <is>
-          <t>** 建材營造 - 建設業</t>
         </is>
       </c>
     </row>

--- a/Result/check1/2025-04-07.xlsx
+++ b/Result/check1/2025-04-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV4"/>
+  <dimension ref="A1:AV5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10.81</t>
+          <t>18.86</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1838</t>
+          <t>715</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-13.27</t>
+          <t>8.83</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>18.77</t>
+          <t>20.63</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>28.32</t>
+          <t>28.45</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>4606</t>
+          <t>5063</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-10.57</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>1784</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-1.45</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>12.65</t>
+          <t>13.91</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>31.94</t>
+          <t>32.28</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>3861</t>
+          <t>4244</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>48</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>3793</t>
+          <t>10355</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-5.72</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>36.29</t>
+          <t>36.61</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>47.12</t>
+          <t>46.77</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>4392</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1398,6 +1398,248 @@
       <c r="AV4" t="inlineStr">
         <is>
           <t>** 建材營造 - 建材原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1442</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5155.765</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>41.39</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>-10.52</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>-3.46</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>-0.37</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>408339081.0</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>名軒</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>建材營造</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>46.69%</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>38.62%</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>44.08</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>27502</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>房地產99.85%、其他租賃業務0.15% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>名軒-建材營造-上市</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>建材營造右上</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>** 建材營造 - 建設業</t>
         </is>
       </c>
     </row>

--- a/Result/check1/2025-04-07.xlsx
+++ b/Result/check1/2025-04-07.xlsx
@@ -713,7 +713,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>11.25</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>18.86</t>
+          <t>26.2</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>4873</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>8.83</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>20.63</t>
+          <t>22.68</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>28.45</t>
+          <t>27.51</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>5063</t>
+          <t>5567</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>248</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1784</t>
+          <t>21213</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>13.91</t>
+          <t>15.06</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>32.28</t>
+          <t>31.16</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>4244</t>
+          <t>4596</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>10355</t>
+          <t>3079</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-5.72</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>8.77</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>36.61</t>
+          <t>36.77</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>46.77</t>
+          <t>45.59</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>4431</t>
+          <t>4451</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-10.52</t>
+          <t>-15.12</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>602</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-3.46</t>
+          <t>-3.45</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>10.46</t>
+          <t>10.04</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>44.08</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>27502</t>
+          <t>26404</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
